--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Golden_State_Warriors.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Golden_State_Warriors.xlsx
@@ -588,40 +588,40 @@
         <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>787</v>
+        <v>820</v>
       </c>
       <c r="G2" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H2" t="n">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="I2" t="n">
         <v>0.439</v>
       </c>
       <c r="J2" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K2" t="n">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="L2" t="n">
-        <v>0.416</v>
+        <v>0.413</v>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N2" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O2" t="n">
-        <v>0.482</v>
+        <v>0.488</v>
       </c>
       <c r="P2" t="n">
         <v>0.574</v>
@@ -636,31 +636,31 @@
         <v>0.9340000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U2" t="n">
         <v>115</v>
       </c>
       <c r="V2" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W2" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="X2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="n">
-        <v>637</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3">
@@ -669,86 +669,86 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>728</v>
+        <v>761</v>
       </c>
       <c r="G3" t="n">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H3" t="n">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="I3" t="n">
-        <v>0.488</v>
+        <v>0.448</v>
       </c>
       <c r="J3" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="K3" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="L3" t="n">
-        <v>0.416</v>
+        <v>0.345</v>
       </c>
       <c r="M3" t="n">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="N3" t="n">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="O3" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.545</v>
       </c>
       <c r="Q3" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R3" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="S3" t="n">
-        <v>0.719</v>
+        <v>0.91</v>
       </c>
       <c r="T3" t="n">
+        <v>8</v>
+      </c>
+      <c r="U3" t="n">
+        <v>72</v>
+      </c>
+      <c r="V3" t="n">
+        <v>80</v>
+      </c>
+      <c r="W3" t="n">
+        <v>87</v>
+      </c>
+      <c r="X3" t="n">
         <v>28</v>
       </c>
-      <c r="U3" t="n">
-        <v>78</v>
-      </c>
-      <c r="V3" t="n">
-        <v>106</v>
-      </c>
-      <c r="W3" t="n">
-        <v>40</v>
-      </c>
-      <c r="X3" t="n">
-        <v>19</v>
-      </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Z3" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AA3" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="AB3" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4">
@@ -757,86 +757,86 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>726</v>
+        <v>761</v>
       </c>
       <c r="G4" t="n">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="H4" t="n">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="I4" t="n">
-        <v>0.452</v>
+        <v>0.487</v>
       </c>
       <c r="J4" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="K4" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="L4" t="n">
-        <v>0.353</v>
+        <v>0.415</v>
       </c>
       <c r="M4" t="n">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="N4" t="n">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="O4" t="n">
-        <v>0.575</v>
+        <v>0.53</v>
       </c>
       <c r="P4" t="n">
-        <v>0.55</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="R4" t="n">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="S4" t="n">
-        <v>0.914</v>
+        <v>0.731</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="U4" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="V4" t="n">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="W4" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="n">
-        <v>430</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5">
@@ -852,79 +852,79 @@
         <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
-        <v>694</v>
+        <v>726</v>
       </c>
       <c r="G5" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="J5" t="n">
         <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" t="n">
-        <v>0.318</v>
+        <v>0.304</v>
       </c>
       <c r="M5" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O5" t="n">
-        <v>0.611</v>
+        <v>0.598</v>
       </c>
       <c r="P5" t="n">
-        <v>0.589</v>
+        <v>0.575</v>
       </c>
       <c r="Q5" t="n">
+        <v>32</v>
+      </c>
+      <c r="R5" t="n">
+        <v>55</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="T5" t="n">
         <v>29</v>
       </c>
-      <c r="R5" t="n">
-        <v>49</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.592</v>
-      </c>
-      <c r="T5" t="n">
-        <v>27</v>
-      </c>
       <c r="U5" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="V5" t="n">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="W5" t="n">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="X5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z5" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB5" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6">
@@ -940,22 +940,22 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="G6" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H6" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I6" t="n">
-        <v>0.515</v>
+        <v>0.523</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -967,40 +967,40 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N6" t="n">
+        <v>106</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>24</v>
+      </c>
+      <c r="R6" t="n">
+        <v>43</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="T6" t="n">
+        <v>60</v>
+      </c>
+      <c r="U6" t="n">
         <v>98</v>
       </c>
-      <c r="O6" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.515</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>23</v>
-      </c>
-      <c r="R6" t="n">
-        <v>41</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="T6" t="n">
-        <v>59</v>
-      </c>
-      <c r="U6" t="n">
-        <v>93</v>
-      </c>
       <c r="V6" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="W6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>17</v>
@@ -1009,10 +1009,10 @@
         <v>16</v>
       </c>
       <c r="AA6" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AB6" t="n">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
@@ -1028,61 +1028,61 @@
         <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="G7" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H7" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I7" t="n">
-        <v>0.448</v>
+        <v>0.452</v>
       </c>
       <c r="J7" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K7" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="n">
-        <v>0.41</v>
+        <v>0.427</v>
       </c>
       <c r="M7" t="n">
         <v>18</v>
       </c>
       <c r="N7" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O7" t="n">
-        <v>0.545</v>
+        <v>0.514</v>
       </c>
       <c r="P7" t="n">
-        <v>0.595</v>
+        <v>0.605</v>
       </c>
       <c r="Q7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S7" t="n">
-        <v>0.75</v>
+        <v>0.789</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
       </c>
       <c r="U7" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="V7" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="W7" t="n">
         <v>24</v>
@@ -1094,13 +1094,13 @@
         <v>7</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA7" t="n">
         <v>30</v>
       </c>
       <c r="AB7" t="n">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
@@ -1116,79 +1116,79 @@
         <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="G8" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I8" t="n">
-        <v>0.545</v>
+        <v>0.533</v>
       </c>
       <c r="J8" t="n">
         <v>9</v>
       </c>
       <c r="K8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L8" t="n">
-        <v>0.29</v>
+        <v>0.281</v>
       </c>
       <c r="M8" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
+        <v>60</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>17</v>
+      </c>
+      <c r="R8" t="n">
+        <v>26</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="T8" t="n">
+        <v>14</v>
+      </c>
+      <c r="U8" t="n">
         <v>57</v>
       </c>
-      <c r="O8" t="n">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.597</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="V8" t="n">
+        <v>71</v>
+      </c>
+      <c r="W8" t="n">
+        <v>53</v>
+      </c>
+      <c r="X8" t="n">
         <v>16</v>
-      </c>
-      <c r="R8" t="n">
-        <v>24</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="T8" t="n">
-        <v>12</v>
-      </c>
-      <c r="U8" t="n">
-        <v>52</v>
-      </c>
-      <c r="V8" t="n">
-        <v>64</v>
-      </c>
-      <c r="W8" t="n">
-        <v>51</v>
-      </c>
-      <c r="X8" t="n">
-        <v>15</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
         <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
@@ -1204,64 +1204,64 @@
         <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="G9" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I9" t="n">
-        <v>0.433</v>
+        <v>0.428</v>
       </c>
       <c r="J9" t="n">
         <v>21</v>
       </c>
       <c r="K9" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9" t="n">
-        <v>0.333</v>
+        <v>0.328</v>
       </c>
       <c r="M9" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N9" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O9" t="n">
-        <v>0.521</v>
+        <v>0.514</v>
       </c>
       <c r="P9" t="n">
-        <v>0.511</v>
+        <v>0.504</v>
       </c>
       <c r="Q9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S9" t="n">
-        <v>0.833</v>
+        <v>0.846</v>
       </c>
       <c r="T9" t="n">
         <v>7</v>
       </c>
       <c r="U9" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V9" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X9" t="n">
         <v>7</v>
@@ -1270,13 +1270,13 @@
         <v>2</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AB9" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
@@ -1292,79 +1292,79 @@
         <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="G10" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="I10" t="n">
-        <v>0.471</v>
+        <v>0.462</v>
       </c>
       <c r="J10" t="n">
         <v>22</v>
       </c>
       <c r="K10" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L10" t="n">
-        <v>0.386</v>
+        <v>0.361</v>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="O10" t="n">
-        <v>0.547</v>
+        <v>0.551</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.546</v>
       </c>
       <c r="Q10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R10" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="S10" t="n">
-        <v>0.714</v>
+        <v>0.71</v>
       </c>
       <c r="T10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U10" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="V10" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="W10" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AA10" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
@@ -1380,43 +1380,43 @@
         <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="G11" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I11" t="n">
-        <v>0.677</v>
+        <v>0.667</v>
       </c>
       <c r="J11" t="n">
         <v>13</v>
       </c>
       <c r="K11" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L11" t="n">
-        <v>0.406</v>
+        <v>0.394</v>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N11" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O11" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>0.747</v>
+        <v>0.734</v>
       </c>
       <c r="Q11" t="n">
         <v>19</v>
@@ -1431,10 +1431,10 @@
         <v>25</v>
       </c>
       <c r="U11" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="n">
         <v>18</v>
@@ -1449,10 +1449,10 @@
         <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB11" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
@@ -1896,77 +1896,77 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>5785</v>
+        <v>6025</v>
       </c>
       <c r="G17" t="n">
-        <v>994</v>
+        <v>1027</v>
       </c>
       <c r="H17" t="n">
-        <v>2089</v>
+        <v>2172</v>
       </c>
       <c r="I17" t="n">
-        <v>0.476</v>
+        <v>0.473</v>
       </c>
       <c r="J17" t="n">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="K17" t="n">
-        <v>982</v>
+        <v>1028</v>
       </c>
       <c r="L17" t="n">
-        <v>0.376</v>
+        <v>0.373</v>
       </c>
       <c r="M17" t="n">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="N17" t="n">
-        <v>1107</v>
+        <v>1144</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="P17" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="Q17" t="n">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="R17" t="n">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="S17" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="T17" t="n">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="U17" t="n">
-        <v>892</v>
+        <v>929</v>
       </c>
       <c r="V17" t="n">
-        <v>1131</v>
+        <v>1178</v>
       </c>
       <c r="W17" t="n">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="X17" t="n">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="Y17" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Z17" t="n">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="AA17" t="n">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="AB17" t="n">
-        <v>2727</v>
+        <v>2831</v>
       </c>
     </row>
   </sheetData>
